--- a/outcome/appendix/data/forecast/Enteric fever.xlsx
+++ b/outcome/appendix/data/forecast/Enteric fever.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>565.575261761869</v>
+        <v>565.534363952013</v>
       </c>
       <c r="C2" t="n">
-        <v>411.625456344053</v>
+        <v>411.554141828118</v>
       </c>
       <c r="D2" t="n">
-        <v>330.129352164276</v>
+        <v>330.041936016768</v>
       </c>
       <c r="E2" t="n">
-        <v>719.525067179684</v>
+        <v>719.514586075907</v>
       </c>
       <c r="F2" t="n">
-        <v>801.021171359462</v>
+        <v>801.026791887257</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>513</v>
       </c>
       <c r="I2" t="n">
-        <v>52.5752617618689</v>
+        <v>52.5343639520125</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>399.508908924884</v>
+        <v>399.47129017192</v>
       </c>
       <c r="C3" t="n">
-        <v>214.984848522151</v>
+        <v>214.937022588096</v>
       </c>
       <c r="D3" t="n">
-        <v>117.303711417469</v>
+        <v>117.250482128137</v>
       </c>
       <c r="E3" t="n">
-        <v>584.032969327617</v>
+        <v>584.005557755745</v>
       </c>
       <c r="F3" t="n">
-        <v>681.714106432298</v>
+        <v>681.692098215704</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>364</v>
       </c>
       <c r="I3" t="n">
-        <v>35.5089089248838</v>
+        <v>35.4712901719205</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>563.022225518909</v>
+        <v>563.076607784938</v>
       </c>
       <c r="C4" t="n">
-        <v>365.965810560894</v>
+        <v>365.994909692686</v>
       </c>
       <c r="D4" t="n">
-        <v>261.650445698124</v>
+        <v>261.666160747123</v>
       </c>
       <c r="E4" t="n">
-        <v>760.078640476924</v>
+        <v>760.158305877189</v>
       </c>
       <c r="F4" t="n">
-        <v>864.394005339694</v>
+        <v>864.487054822752</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>360</v>
       </c>
       <c r="I4" t="n">
-        <v>203.022225518909</v>
+        <v>203.076607784938</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>799.686679475649</v>
+        <v>799.593006671417</v>
       </c>
       <c r="C5" t="n">
-        <v>588.788011170388</v>
+        <v>588.677910443853</v>
       </c>
       <c r="D5" t="n">
-        <v>477.14500001532</v>
+        <v>477.026202872027</v>
       </c>
       <c r="E5" t="n">
-        <v>1010.58534778091</v>
+        <v>1010.50810289898</v>
       </c>
       <c r="F5" t="n">
-        <v>1122.22835893598</v>
+        <v>1122.15981047081</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>415</v>
       </c>
       <c r="I5" t="n">
-        <v>384.686679475649</v>
+        <v>384.593006671417</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>886.971646968114</v>
+        <v>886.966292034714</v>
       </c>
       <c r="C6" t="n">
-        <v>672.727152822792</v>
+        <v>672.695950946165</v>
       </c>
       <c r="D6" t="n">
-        <v>559.312968456501</v>
+        <v>559.268084034628</v>
       </c>
       <c r="E6" t="n">
-        <v>1101.21614111344</v>
+        <v>1101.23663312326</v>
       </c>
       <c r="F6" t="n">
-        <v>1214.63032547973</v>
+        <v>1214.6645000348</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>607</v>
       </c>
       <c r="I6" t="n">
-        <v>279.971646968114</v>
+        <v>279.966292034714</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>991.70812701098</v>
+        <v>991.688556215494</v>
       </c>
       <c r="C7" t="n">
-        <v>776.629044340404</v>
+        <v>776.578413900506</v>
       </c>
       <c r="D7" t="n">
-        <v>662.773055496239</v>
+        <v>662.705983073775</v>
       </c>
       <c r="E7" t="n">
-        <v>1206.78720968156</v>
+        <v>1206.79869853048</v>
       </c>
       <c r="F7" t="n">
-        <v>1320.64319852572</v>
+        <v>1320.67112935721</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>832</v>
       </c>
       <c r="I7" t="n">
-        <v>159.70812701098</v>
+        <v>159.688556215494</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1113.88893377538</v>
+        <v>1113.9034431901</v>
       </c>
       <c r="C8" t="n">
-        <v>898.600138851407</v>
+        <v>898.58155333666</v>
       </c>
       <c r="D8" t="n">
-        <v>784.633135046202</v>
+        <v>784.597030134061</v>
       </c>
       <c r="E8" t="n">
-        <v>1329.17772869935</v>
+        <v>1329.22533304354</v>
       </c>
       <c r="F8" t="n">
-        <v>1443.14473250455</v>
+        <v>1443.20985624614</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>830</v>
       </c>
       <c r="I8" t="n">
-        <v>283.888933775378</v>
+        <v>283.9034431901</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1105.27762576202</v>
+        <v>1105.36365155574</v>
       </c>
       <c r="C9" t="n">
-        <v>889.936062357856</v>
+        <v>889.988297108285</v>
       </c>
       <c r="D9" t="n">
-        <v>775.941124606601</v>
+        <v>775.975471459237</v>
       </c>
       <c r="E9" t="n">
-        <v>1320.61918916618</v>
+        <v>1320.73900600319</v>
       </c>
       <c r="F9" t="n">
-        <v>1434.61412691744</v>
+        <v>1434.75183165224</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>830</v>
       </c>
       <c r="I9" t="n">
-        <v>275.277625762019</v>
+        <v>275.36365155574</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>955.425456762672</v>
+        <v>955.483491154668</v>
       </c>
       <c r="C10" t="n">
-        <v>740.070701626305</v>
+        <v>740.094723027052</v>
       </c>
       <c r="D10" t="n">
-        <v>626.06878059385</v>
+        <v>626.074796604652</v>
       </c>
       <c r="E10" t="n">
-        <v>1170.78021189904</v>
+        <v>1170.87225928228</v>
       </c>
       <c r="F10" t="n">
-        <v>1284.78213293149</v>
+        <v>1284.89218570468</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>848</v>
       </c>
       <c r="I10" t="n">
-        <v>107.425456762672</v>
+        <v>107.483491154668</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>823.682606965467</v>
+        <v>823.746581982463</v>
       </c>
       <c r="C11" t="n">
-        <v>608.324919432585</v>
+        <v>608.354811975963</v>
       </c>
       <c r="D11" t="n">
-        <v>494.321446083182</v>
+        <v>494.333296454873</v>
       </c>
       <c r="E11" t="n">
-        <v>1039.04029449835</v>
+        <v>1039.13835198896</v>
       </c>
       <c r="F11" t="n">
-        <v>1153.04376784775</v>
+        <v>1153.15986751005</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>689</v>
       </c>
       <c r="I11" t="n">
-        <v>134.682606965467</v>
+        <v>134.746581982463</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>640.999748798799</v>
+        <v>641.054357402836</v>
       </c>
       <c r="C12" t="n">
-        <v>425.641573373848</v>
+        <v>425.662078595061</v>
       </c>
       <c r="D12" t="n">
-        <v>311.637841749986</v>
+        <v>311.640293730845</v>
       </c>
       <c r="E12" t="n">
-        <v>856.357924223749</v>
+        <v>856.446636210611</v>
       </c>
       <c r="F12" t="n">
-        <v>970.361655847611</v>
+        <v>970.468421074827</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>517</v>
       </c>
       <c r="I12" t="n">
-        <v>123.999748798799</v>
+        <v>124.054357402836</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>559.646717559947</v>
+        <v>559.655287417292</v>
       </c>
       <c r="C13" t="n">
-        <v>344.28909554975</v>
+        <v>344.263552870978</v>
       </c>
       <c r="D13" t="n">
-        <v>230.285656885961</v>
+        <v>230.242056121376</v>
       </c>
       <c r="E13" t="n">
-        <v>775.004339570144</v>
+        <v>775.047021963605</v>
       </c>
       <c r="F13" t="n">
-        <v>889.007778233933</v>
+        <v>889.068518713207</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>483</v>
       </c>
       <c r="I13" t="n">
-        <v>76.646717559947</v>
+        <v>76.6552874172918</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>525.297441645083</v>
+        <v>525.311090685304</v>
       </c>
       <c r="C14" t="n">
-        <v>294.757551090011</v>
+        <v>294.745526216087</v>
       </c>
       <c r="D14" t="n">
-        <v>172.717104937577</v>
+        <v>172.691489114471</v>
       </c>
       <c r="E14" t="n">
-        <v>755.837332200154</v>
+        <v>755.876655154521</v>
       </c>
       <c r="F14" t="n">
-        <v>877.877778352588</v>
+        <v>877.930692256137</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>362</v>
       </c>
       <c r="I14" t="n">
-        <v>163.297441645083</v>
+        <v>163.311090685304</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>345.365187459414</v>
+        <v>345.373946979074</v>
       </c>
       <c r="C15" t="n">
-        <v>108.505990495627</v>
+        <v>108.498272242787</v>
       </c>
       <c r="D15" t="n">
-        <v>-16.8796943989472</v>
+        <v>-16.896135457643</v>
       </c>
       <c r="E15" t="n">
-        <v>582.224384423201</v>
+        <v>582.249621715361</v>
       </c>
       <c r="F15" t="n">
-        <v>707.610069317774</v>
+        <v>707.644029415792</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>327</v>
       </c>
       <c r="I15" t="n">
-        <v>18.3651874594136</v>
+        <v>18.3739469790744</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>523.265433601494</v>
+        <v>523.346763246743</v>
       </c>
       <c r="C16" t="n">
-        <v>283.544429346834</v>
+        <v>283.608172141252</v>
       </c>
       <c r="D16" t="n">
-        <v>156.643795183656</v>
+        <v>156.698228061614</v>
       </c>
       <c r="E16" t="n">
-        <v>762.986437856155</v>
+        <v>763.085354352233</v>
       </c>
       <c r="F16" t="n">
-        <v>889.887072019333</v>
+        <v>889.995298431871</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>487</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2654336014942</v>
+        <v>36.3467632467426</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>702.065422290604</v>
+        <v>702.07124220735</v>
       </c>
       <c r="C17" t="n">
-        <v>459.01208683504</v>
+        <v>459.005164983865</v>
       </c>
       <c r="D17" t="n">
-        <v>330.347423091095</v>
+        <v>330.333756155422</v>
       </c>
       <c r="E17" t="n">
-        <v>945.118757746167</v>
+        <v>945.137319430835</v>
       </c>
       <c r="F17" t="n">
-        <v>1073.78342149011</v>
+        <v>1073.80872825928</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>522</v>
       </c>
       <c r="I17" t="n">
-        <v>180.065422290604</v>
+        <v>180.07124220735</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>837.881103813905</v>
+        <v>837.880733355714</v>
       </c>
       <c r="C18" t="n">
-        <v>593.995550480097</v>
+        <v>593.980771851581</v>
       </c>
       <c r="D18" t="n">
-        <v>464.890337203001</v>
+        <v>464.86793134984</v>
       </c>
       <c r="E18" t="n">
-        <v>1081.76665714771</v>
+        <v>1081.78069485985</v>
       </c>
       <c r="F18" t="n">
-        <v>1210.87187042481</v>
+        <v>1210.89353536159</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>649</v>
       </c>
       <c r="I18" t="n">
-        <v>188.881103813905</v>
+        <v>188.880733355714</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>950.718614201123</v>
+        <v>950.697687882872</v>
       </c>
       <c r="C19" t="n">
-        <v>706.623878861998</v>
+        <v>706.587402687496</v>
       </c>
       <c r="D19" t="n">
-        <v>577.407931320238</v>
+        <v>577.363223549071</v>
       </c>
       <c r="E19" t="n">
-        <v>1194.81334954025</v>
+        <v>1194.80797307825</v>
       </c>
       <c r="F19" t="n">
-        <v>1324.02929708201</v>
+        <v>1324.03215221667</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>829</v>
       </c>
       <c r="I19" t="n">
-        <v>121.718614201123</v>
+        <v>121.697687882872</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>1086.45599763962</v>
+        <v>1086.43378012665</v>
       </c>
       <c r="C20" t="n">
-        <v>842.308606962722</v>
+        <v>842.270369470006</v>
       </c>
       <c r="D20" t="n">
-        <v>713.064785368892</v>
+        <v>713.018067411165</v>
       </c>
       <c r="E20" t="n">
-        <v>1330.60338831651</v>
+        <v>1330.59719078329</v>
       </c>
       <c r="F20" t="n">
-        <v>1459.84720991034</v>
+        <v>1459.84949284213</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>939</v>
       </c>
       <c r="I20" t="n">
-        <v>147.455997639617</v>
+        <v>147.433780126647</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1104.90963372742</v>
+        <v>1104.90235681624</v>
       </c>
       <c r="C21" t="n">
-        <v>860.749014143137</v>
+        <v>860.725552693862</v>
       </c>
       <c r="D21" t="n">
-        <v>731.498189588755</v>
+        <v>731.466160562536</v>
       </c>
       <c r="E21" t="n">
-        <v>1349.07025331169</v>
+        <v>1349.07916093863</v>
       </c>
       <c r="F21" t="n">
-        <v>1478.32107786608</v>
+        <v>1478.33855306995</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>913</v>
       </c>
       <c r="I21" t="n">
-        <v>191.909633727416</v>
+        <v>191.902356816244</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>952.443708194721</v>
+        <v>952.413637748392</v>
       </c>
       <c r="C22" t="n">
-        <v>708.279887098255</v>
+        <v>708.23357875602</v>
       </c>
       <c r="D22" t="n">
-        <v>579.027367765694</v>
+        <v>578.972463600602</v>
       </c>
       <c r="E22" t="n">
-        <v>1196.60752929119</v>
+        <v>1196.59369674076</v>
       </c>
       <c r="F22" t="n">
-        <v>1325.86004862375</v>
+        <v>1325.85481189618</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>786</v>
       </c>
       <c r="I22" t="n">
-        <v>166.443708194721</v>
+        <v>166.413637748392</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>807.551489009779</v>
+        <v>807.550183066658</v>
       </c>
       <c r="C23" t="n">
-        <v>563.387380224531</v>
+        <v>563.369817315132</v>
       </c>
       <c r="D23" t="n">
-        <v>434.134708598729</v>
+        <v>434.108539771227</v>
       </c>
       <c r="E23" t="n">
-        <v>1051.71559779503</v>
+        <v>1051.73054881818</v>
       </c>
       <c r="F23" t="n">
-        <v>1180.96826942083</v>
+        <v>1180.99182636209</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>655</v>
       </c>
       <c r="I23" t="n">
-        <v>152.551489009779</v>
+        <v>152.550183066658</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>617.228292380922</v>
+        <v>617.233364317228</v>
       </c>
       <c r="C24" t="n">
-        <v>373.064442363923</v>
+        <v>373.053251026844</v>
       </c>
       <c r="D24" t="n">
-        <v>243.811907721757</v>
+        <v>243.792107127795</v>
       </c>
       <c r="E24" t="n">
-        <v>861.392142397921</v>
+        <v>861.413477607612</v>
       </c>
       <c r="F24" t="n">
-        <v>990.644677040087</v>
+        <v>990.674621506662</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>524</v>
       </c>
       <c r="I24" t="n">
-        <v>93.2282923809223</v>
+        <v>93.2333643172282</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>523.38435291576</v>
+        <v>523.373479708081</v>
       </c>
       <c r="C25" t="n">
-        <v>279.221466111422</v>
+        <v>279.194323226123</v>
       </c>
       <c r="D25" t="n">
-        <v>149.969441363239</v>
+        <v>149.933685830858</v>
       </c>
       <c r="E25" t="n">
-        <v>767.547239720097</v>
+        <v>767.55263619004</v>
       </c>
       <c r="F25" t="n">
-        <v>896.79926446828</v>
+        <v>896.813273585304</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>487</v>
       </c>
       <c r="I25" t="n">
-        <v>36.3843529157596</v>
+        <v>36.3734797080813</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>482.332084695524</v>
+        <v>482.352543059208</v>
       </c>
       <c r="C26" t="n">
-        <v>231.395231093921</v>
+        <v>231.395054109734</v>
       </c>
       <c r="D26" t="n">
-        <v>98.5572849324428</v>
+        <v>98.5461842549437</v>
       </c>
       <c r="E26" t="n">
-        <v>733.268938297128</v>
+        <v>733.310032008682</v>
       </c>
       <c r="F26" t="n">
-        <v>866.106884458606</v>
+        <v>866.158901863472</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>405</v>
       </c>
       <c r="I26" t="n">
-        <v>77.3320846955244</v>
+        <v>77.3525430592078</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>299.99957175784</v>
+        <v>300.010626352013</v>
       </c>
       <c r="C27" t="n">
-        <v>46.1625947258393</v>
+        <v>46.1538959410123</v>
       </c>
       <c r="D27" t="n">
-        <v>-88.2105840432824</v>
+        <v>-88.2297396353043</v>
       </c>
       <c r="E27" t="n">
-        <v>553.83654878984</v>
+        <v>553.867356763014</v>
       </c>
       <c r="F27" t="n">
-        <v>688.209727558962</v>
+        <v>688.25099233933</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>280</v>
       </c>
       <c r="I27" t="n">
-        <v>19.9995717578396</v>
+        <v>20.0106263520131</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>475.965230747135</v>
+        <v>476.053925616252</v>
       </c>
       <c r="C28" t="n">
-        <v>220.799972853726</v>
+        <v>220.866890300031</v>
       </c>
       <c r="D28" t="n">
-        <v>85.7236446706272</v>
+        <v>85.7790338456658</v>
       </c>
       <c r="E28" t="n">
-        <v>731.130488640544</v>
+        <v>731.240960932473</v>
       </c>
       <c r="F28" t="n">
-        <v>866.206816823643</v>
+        <v>866.328817386838</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>408</v>
       </c>
       <c r="I28" t="n">
-        <v>67.965230747135</v>
+        <v>68.0539256162517</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>654.823807367716</v>
+        <v>654.832737041061</v>
       </c>
       <c r="C29" t="n">
-        <v>398.100192534958</v>
+        <v>398.087852313845</v>
       </c>
       <c r="D29" t="n">
-        <v>262.198920019298</v>
+        <v>262.1753201962</v>
       </c>
       <c r="E29" t="n">
-        <v>911.547422200474</v>
+        <v>911.577621768277</v>
       </c>
       <c r="F29" t="n">
-        <v>1047.44869471613</v>
+        <v>1047.49015388592</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>421</v>
       </c>
       <c r="I29" t="n">
-        <v>233.823807367716</v>
+        <v>233.832737041061</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>790.668893667637</v>
+        <v>790.669544240488</v>
       </c>
       <c r="C30" t="n">
-        <v>533.554226345488</v>
+        <v>533.532384444722</v>
       </c>
       <c r="D30" t="n">
-        <v>397.445943146517</v>
+        <v>397.412194449453</v>
       </c>
       <c r="E30" t="n">
-        <v>1047.78356098978</v>
+        <v>1047.80670403625</v>
       </c>
       <c r="F30" t="n">
-        <v>1183.89184418876</v>
+        <v>1183.92689403152</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>566</v>
       </c>
       <c r="I30" t="n">
-        <v>224.668893667637</v>
+        <v>224.669544240488</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>903.52116205819</v>
+        <v>903.500232115778</v>
       </c>
       <c r="C31" t="n">
-        <v>646.308086318284</v>
+        <v>646.264015603397</v>
       </c>
       <c r="D31" t="n">
-        <v>510.14770884973</v>
+        <v>510.091388149859</v>
       </c>
       <c r="E31" t="n">
-        <v>1160.73423779809</v>
+        <v>1160.73644862816</v>
       </c>
       <c r="F31" t="n">
-        <v>1296.89461526665</v>
+        <v>1296.9090760817</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>700</v>
       </c>
       <c r="I31" t="n">
-        <v>203.52116205819</v>
+        <v>203.500232115778</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>1039.26595241105</v>
+        <v>1039.24322890262</v>
       </c>
       <c r="C32" t="n">
-        <v>782.028101894428</v>
+        <v>781.981988261286</v>
       </c>
       <c r="D32" t="n">
-        <v>645.854609451295</v>
+        <v>645.796113834073</v>
       </c>
       <c r="E32" t="n">
-        <v>1296.50380292768</v>
+        <v>1296.50446954395</v>
       </c>
       <c r="F32" t="n">
-        <v>1432.67729537081</v>
+        <v>1432.69034397116</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>741</v>
       </c>
       <c r="I32" t="n">
-        <v>298.265952411052</v>
+        <v>298.243228902616</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1057.72330596518</v>
+        <v>1057.71527690266</v>
       </c>
       <c r="C33" t="n">
-        <v>800.479246425028</v>
+        <v>800.447742708323</v>
       </c>
       <c r="D33" t="n">
-        <v>664.302467123384</v>
+        <v>664.258536675392</v>
       </c>
       <c r="E33" t="n">
-        <v>1314.96736550533</v>
+        <v>1314.98281109701</v>
       </c>
       <c r="F33" t="n">
-        <v>1451.14414480697</v>
+        <v>1451.17201712994</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>730</v>
       </c>
       <c r="I33" t="n">
-        <v>327.723305965178</v>
+        <v>327.715276902665</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>905.259246196715</v>
+        <v>905.228303061999</v>
       </c>
       <c r="C34" t="n">
-        <v>648.013746683274</v>
+        <v>647.959301880545</v>
       </c>
       <c r="D34" t="n">
-        <v>511.836205105816</v>
+        <v>511.769319271547</v>
       </c>
       <c r="E34" t="n">
-        <v>1162.50474571016</v>
+        <v>1162.49730424345</v>
       </c>
       <c r="F34" t="n">
-        <v>1298.68228728762</v>
+        <v>1298.68728685245</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>631</v>
       </c>
       <c r="I34" t="n">
-        <v>274.259246196715</v>
+        <v>274.228303061999</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>760.367963422721</v>
+        <v>760.365725806231</v>
       </c>
       <c r="C35" t="n">
-        <v>503.122593558855</v>
+        <v>503.096843525488</v>
       </c>
       <c r="D35" t="n">
-        <v>366.945120613736</v>
+        <v>366.906923858723</v>
       </c>
       <c r="E35" t="n">
-        <v>1017.61333328659</v>
+        <v>1017.63460808697</v>
       </c>
       <c r="F35" t="n">
-        <v>1153.79080623171</v>
+        <v>1153.82452775374</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>494</v>
       </c>
       <c r="I35" t="n">
-        <v>266.367963422721</v>
+        <v>266.365725806231</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>570.045236770429</v>
+        <v>570.049348189241</v>
       </c>
       <c r="C36" t="n">
-        <v>312.800213533629</v>
+        <v>312.780808748408</v>
       </c>
       <c r="D36" t="n">
-        <v>176.622924081794</v>
+        <v>176.59107057013</v>
       </c>
       <c r="E36" t="n">
-        <v>827.290260007229</v>
+        <v>827.317887630074</v>
       </c>
       <c r="F36" t="n">
-        <v>963.467549459064</v>
+        <v>963.507625808352</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>419</v>
       </c>
       <c r="I36" t="n">
-        <v>151.045236770429</v>
+        <v>151.049348189241</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>476.201533182443</v>
+        <v>476.189685362714</v>
       </c>
       <c r="C37" t="n">
-        <v>218.957449490235</v>
+        <v>218.922080009809</v>
       </c>
       <c r="D37" t="n">
-        <v>82.7806574032631</v>
+        <v>82.7328363078103</v>
       </c>
       <c r="E37" t="n">
-        <v>733.445616874652</v>
+        <v>733.457290715619</v>
       </c>
       <c r="F37" t="n">
-        <v>869.622408961624</v>
+        <v>869.646534417618</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>234</v>
       </c>
       <c r="I37" t="n">
-        <v>242.201533182443</v>
+        <v>242.189685362714</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>435.149383346926</v>
+        <v>435.168860216705</v>
       </c>
       <c r="C38" t="n">
-        <v>171.472439896561</v>
+        <v>171.464469537332</v>
       </c>
       <c r="D38" t="n">
-        <v>31.8902975553181</v>
+        <v>31.8677975107242</v>
       </c>
       <c r="E38" t="n">
-        <v>698.82632679729</v>
+        <v>698.873250896077</v>
       </c>
       <c r="F38" t="n">
-        <v>838.408469138533</v>
+        <v>838.469922922685</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>184</v>
       </c>
       <c r="I38" t="n">
-        <v>251.149383346926</v>
+        <v>251.168860216705</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>252.816929825508</v>
+        <v>252.826999568406</v>
       </c>
       <c r="C39" t="n">
-        <v>-13.6197722958808</v>
+        <v>-13.6362236438965</v>
       </c>
       <c r="D39" t="n">
-        <v>-154.662842629559</v>
+        <v>-154.693333395047</v>
       </c>
       <c r="E39" t="n">
-        <v>519.253631946896</v>
+        <v>519.290222780708</v>
       </c>
       <c r="F39" t="n">
-        <v>660.296702280574</v>
+        <v>660.347332531858</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>341</v>
       </c>
       <c r="I39" t="n">
-        <v>-88.1830701744924</v>
+        <v>-88.1730004315945</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>428.782618635314</v>
+        <v>428.870327016671</v>
       </c>
       <c r="C40" t="n">
-        <v>161.080731971483</v>
+        <v>161.140027845225</v>
       </c>
       <c r="D40" t="n">
-        <v>19.3679133974766</v>
+        <v>19.4121685982252</v>
       </c>
       <c r="E40" t="n">
-        <v>696.484505299145</v>
+        <v>696.600626188118</v>
       </c>
       <c r="F40" t="n">
-        <v>838.197323873152</v>
+        <v>838.328485435117</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>452</v>
       </c>
       <c r="I40" t="n">
-        <v>-23.2173813646859</v>
+        <v>-23.1296729833288</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>607.641210222552</v>
+        <v>607.64915261121</v>
       </c>
       <c r="C41" t="n">
-        <v>338.453850774531</v>
+        <v>338.433901327769</v>
       </c>
       <c r="D41" t="n">
-        <v>195.954670409109</v>
+        <v>195.919955916563</v>
       </c>
       <c r="E41" t="n">
-        <v>876.828569670572</v>
+        <v>876.864403894652</v>
       </c>
       <c r="F41" t="n">
-        <v>1019.32775003599</v>
+        <v>1019.37834930586</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>452</v>
       </c>
       <c r="I41" t="n">
-        <v>155.641210222552</v>
+        <v>155.64915261121</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>743.486304034108</v>
+        <v>743.485966934575</v>
       </c>
       <c r="C42" t="n">
-        <v>473.926052702244</v>
+        <v>473.896667160159</v>
       </c>
       <c r="D42" t="n">
-        <v>331.229475297371</v>
+        <v>331.184712438673</v>
       </c>
       <c r="E42" t="n">
-        <v>1013.04655536597</v>
+        <v>1013.07526670899</v>
       </c>
       <c r="F42" t="n">
-        <v>1155.74313277085</v>
+        <v>1155.78722143048</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>547</v>
       </c>
       <c r="I42" t="n">
-        <v>196.486304034108</v>
+        <v>196.485966934575</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>856.338576194686</v>
+        <v>856.316658391476</v>
       </c>
       <c r="C43" t="n">
-        <v>586.684478480956</v>
+        <v>586.632896278356</v>
       </c>
       <c r="D43" t="n">
-        <v>443.938221802421</v>
+        <v>443.870936215353</v>
       </c>
       <c r="E43" t="n">
-        <v>1125.99267390842</v>
+        <v>1126.0004205046</v>
       </c>
       <c r="F43" t="n">
-        <v>1268.73893058695</v>
+        <v>1268.7623805676</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>627</v>
       </c>
       <c r="I43" t="n">
-        <v>229.338576194686</v>
+        <v>229.316658391476</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>992.083368439692</v>
+        <v>992.059656978998</v>
       </c>
       <c r="C44" t="n">
-        <v>722.405643953358</v>
+        <v>722.352030869537</v>
       </c>
       <c r="D44" t="n">
-        <v>579.646880016913</v>
+        <v>579.577437969964</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.76109292603</v>
+        <v>1261.76728308846</v>
       </c>
       <c r="F44" t="n">
-        <v>1404.51985686247</v>
+        <v>1404.54187598803</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>657</v>
       </c>
       <c r="I44" t="n">
-        <v>335.083368439692</v>
+        <v>335.059656978998</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>1010.54072294347</v>
+        <v>1010.53170588435</v>
       </c>
       <c r="C45" t="n">
-        <v>740.857077119147</v>
+        <v>740.818077968031</v>
       </c>
       <c r="D45" t="n">
-        <v>598.095178615717</v>
+        <v>598.040307903825</v>
       </c>
       <c r="E45" t="n">
-        <v>1280.22436876779</v>
+        <v>1280.24533380067</v>
       </c>
       <c r="F45" t="n">
-        <v>1422.98626727122</v>
+        <v>1423.02310386488</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>678</v>
       </c>
       <c r="I45" t="n">
-        <v>332.540722943468</v>
+        <v>332.531705884353</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>858.076663651627</v>
+        <v>858.044732498836</v>
       </c>
       <c r="C46" t="n">
-        <v>588.391644596644</v>
+        <v>588.329705623623</v>
       </c>
       <c r="D46" t="n">
-        <v>445.629019148812</v>
+        <v>445.551194995314</v>
       </c>
       <c r="E46" t="n">
-        <v>1127.76168270661</v>
+        <v>1127.75975937405</v>
       </c>
       <c r="F46" t="n">
-        <v>1270.52430815444</v>
+        <v>1270.53827000236</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>596</v>
       </c>
       <c r="I46" t="n">
-        <v>262.076663651627</v>
+        <v>262.044732498836</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>713.185381116844</v>
+        <v>713.182155471898</v>
       </c>
       <c r="C47" t="n">
-        <v>443.500485812294</v>
+        <v>443.467242095031</v>
       </c>
       <c r="D47" t="n">
-        <v>300.737925873984</v>
+        <v>300.688791549116</v>
       </c>
       <c r="E47" t="n">
-        <v>982.870276421394</v>
+        <v>982.897068848765</v>
       </c>
       <c r="F47" t="n">
-        <v>1125.6328363597</v>
+        <v>1125.67551939468</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>480</v>
       </c>
       <c r="I47" t="n">
-        <v>233.185381116844</v>
+        <v>233.182155471898</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>522.862654584611</v>
+        <v>522.865777969954</v>
       </c>
       <c r="C48" t="n">
-        <v>253.178089938858</v>
+        <v>253.151191633792</v>
       </c>
       <c r="D48" t="n">
-        <v>110.415705040742</v>
+        <v>110.372914212768</v>
       </c>
       <c r="E48" t="n">
-        <v>792.547219230363</v>
+        <v>792.580364306117</v>
       </c>
       <c r="F48" t="n">
-        <v>935.309604128479</v>
+        <v>935.35864172714</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>377</v>
       </c>
       <c r="I48" t="n">
-        <v>145.862654584611</v>
+        <v>145.865777969954</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>429.018951056881</v>
+        <v>429.006115201267</v>
       </c>
       <c r="C49" t="n">
-        <v>159.335282622977</v>
+        <v>159.292419854493</v>
       </c>
       <c r="D49" t="n">
-        <v>16.5733721507566</v>
+        <v>16.5146140947614</v>
       </c>
       <c r="E49" t="n">
-        <v>698.702619490785</v>
+        <v>698.719810548041</v>
       </c>
       <c r="F49" t="n">
-        <v>841.464529963006</v>
+        <v>841.497616307773</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>358</v>
       </c>
       <c r="I49" t="n">
-        <v>71.0189510568813</v>
+        <v>71.0061152012673</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
